--- a/Bases/3.5.xlsx
+++ b/Bases/3.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/rrcastillo_ine_gob_gt/Documents/GitHub/Mujeres08marzo2023/Bases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/pgalvez_ine_gob_gt/Documents/Documentos/GitHub/Mujeres08marzo2023/Bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="20" documentId="11_AD4D2F04E46CFB4ACB3E2031CDD2FB74683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D04616AF-5E76-4A06-AB64-78AAFA7BA7F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -138,10 +138,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,7 +406,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
